--- a/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/210/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,169 +52,169 @@
     <t>poor</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>returned</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>probably</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>instead</t>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>un</t>
   </si>
   <si>
     <t>okay</t>
   </si>
   <si>
-    <t>small</t>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>missing</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>short</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>missing</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>fell</t>
-  </si>
-  <si>
     <t>di</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>half</t>
   </si>
   <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>tried</t>
+    <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>sound</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
-    <t>pieces</t>
-  </si>
-  <si>
     <t>box</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>little</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
@@ -223,24 +223,15 @@
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>even</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -259,12 +250,12 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>enjoyable</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>classic</t>
   </si>
   <si>
@@ -283,64 +274,61 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>sturdy</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoyed</t>
   </si>
   <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>fun</t>
   </si>
   <si>
-    <t>book</t>
+    <t>birthday</t>
   </si>
   <si>
     <t>game</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>cute</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>playing</t>
-  </si>
-  <si>
     <t>play</t>
   </si>
   <si>
-    <t>good</t>
+    <t>well</t>
   </si>
   <si>
     <t>positive</t>
@@ -701,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -791,7 +779,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -820,13 +808,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -838,19 +826,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -862,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -870,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7586206896551724</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -888,19 +876,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.8888888888888888</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -912,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -920,13 +908,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7464788732394366</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -938,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K6">
         <v>0.85</v>
@@ -970,13 +958,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7150537634408602</v>
+        <v>0.71875</v>
       </c>
       <c r="C7">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="D7">
-        <v>133</v>
+        <v>46</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -988,19 +976,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8279569892473119</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1012,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1020,13 +1008,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7142857142857143</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1038,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="L8">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1062,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1070,13 +1058,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.703125</v>
+        <v>0.6559139784946236</v>
       </c>
       <c r="C9">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="D9">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1088,19 +1076,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K9">
-        <v>0.734375</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1112,7 +1100,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1120,13 +1108,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6842105263157895</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1138,19 +1126,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>0.6792452830188679</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1162,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1170,13 +1158,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6571428571428571</v>
+        <v>0.6081081081081081</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1188,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.5738880918220947</v>
+        <v>0.5523672883787661</v>
       </c>
       <c r="L11">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M11">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1212,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>297</v>
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1220,13 +1208,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6470588235294118</v>
+        <v>0.6067961165048543</v>
       </c>
       <c r="C12">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="D12">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1238,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.5652173913043478</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1262,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1270,13 +1258,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6456310679611651</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="D13">
-        <v>133</v>
+        <v>33</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1288,19 +1276,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.4937759336099585</v>
+        <v>0.4730290456431535</v>
       </c>
       <c r="L13">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M13">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1320,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6285714285714286</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1338,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K14">
-        <v>0.4540983606557377</v>
+        <v>0.4631147540983607</v>
       </c>
       <c r="L14">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="M14">
-        <v>554</v>
+        <v>565</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1362,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>666</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1370,13 +1358,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6148648648648649</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C15">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D15">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1388,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K15">
-        <v>0.3608562691131498</v>
+        <v>0.3516819571865443</v>
       </c>
       <c r="L15">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1412,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1420,13 +1408,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5636363636363636</v>
+        <v>0.5625</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1438,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K16">
-        <v>0.3207547169811321</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1462,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>36</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1470,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5476190476190477</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1488,19 +1476,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K17">
-        <v>0.3166666666666667</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1512,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>82</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1520,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5416666666666666</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1538,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K18">
-        <v>0.3132530120481928</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1562,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1570,13 +1558,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5185185185185185</v>
+        <v>0.4811594202898551</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>166</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1588,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>179</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K19">
-        <v>0.3121693121693122</v>
+        <v>0.291005291005291</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1612,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1620,13 +1608,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4956521739130435</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C20">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>171</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1638,19 +1626,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>174</v>
+        <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K20">
-        <v>0.2183908045977012</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1662,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>68</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1670,13 +1658,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4444444444444444</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C21">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D21">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1688,10 +1676,10 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K21">
         <v>0.2109375</v>
@@ -1720,13 +1708,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4285714285714285</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1738,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K22">
-        <v>0.1984126984126984</v>
+        <v>0.1989247311827957</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1762,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>101</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1770,13 +1758,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4216867469879518</v>
+        <v>0.4186046511627907</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1788,19 +1776,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K23">
-        <v>0.1881720430107527</v>
+        <v>0.184</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1812,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>151</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1820,13 +1808,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1838,19 +1826,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K24">
-        <v>0.184</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L24">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M24">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1862,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>102</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1870,13 +1858,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4</v>
+        <v>0.4015748031496063</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="D25">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1888,19 +1876,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K25">
-        <v>0.1818181818181818</v>
+        <v>0.1678321678321678</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1912,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1920,13 +1908,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3937007874015748</v>
+        <v>0.4</v>
       </c>
       <c r="C26">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1938,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>77</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K26">
-        <v>0.176706827309237</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1962,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>205</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1970,13 +1958,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3809523809523809</v>
+        <v>0.3894736842105263</v>
       </c>
       <c r="C27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1988,31 +1976,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K27">
-        <v>0.1553994732221247</v>
+        <v>0.1489921121822962</v>
       </c>
       <c r="L27">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="M27">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="N27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>962</v>
+        <v>971</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2020,13 +2008,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3703703703703703</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="C28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2038,31 +2026,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K28">
+        <v>0.1367521367521368</v>
+      </c>
+      <c r="L28">
+        <v>16</v>
+      </c>
+      <c r="M28">
+        <v>16</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>101</v>
-      </c>
-      <c r="K28">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="L28">
-        <v>21</v>
-      </c>
-      <c r="M28">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2070,13 +2058,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3696682464454976</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C29">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2088,31 +2076,31 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>133</v>
+        <v>28</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K29">
-        <v>0.07147498375568551</v>
+        <v>0.07272727272727272</v>
       </c>
       <c r="L29">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M29">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N29">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O29">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P29" t="b">
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2120,13 +2108,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3684210526315789</v>
+        <v>0.3744075829383886</v>
       </c>
       <c r="C30">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2138,19 +2126,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K30">
-        <v>0.07003891050583658</v>
+        <v>0.06684491978609626</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2162,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>239</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2170,13 +2158,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3488372093023256</v>
+        <v>0.3673469387755102</v>
       </c>
       <c r="C31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2188,19 +2176,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K31">
-        <v>0.06684491978609626</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M31">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2212,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>349</v>
+        <v>336</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2220,13 +2208,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3454545454545455</v>
+        <v>0.3515625</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="D32">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2238,19 +2226,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K32">
-        <v>0.06128133704735376</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="L32">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M32">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2262,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>337</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2270,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.328125</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C33">
         <v>21</v>
@@ -2288,31 +2276,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K33">
-        <v>0.05900621118012422</v>
+        <v>0.0426098535286285</v>
       </c>
       <c r="L33">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="N33">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.09999999999999998</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>303</v>
+        <v>719</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2320,13 +2308,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.303370786516854</v>
+        <v>0.328125</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2338,31 +2326,31 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K34">
-        <v>0.03604806408544727</v>
+        <v>0.03836317135549872</v>
       </c>
       <c r="L34">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N34">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="O34">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>722</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2370,13 +2358,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.296875</v>
+        <v>0.3258426966292135</v>
       </c>
       <c r="C35">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2388,31 +2376,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>90</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="K35">
-        <v>0.02136752136752137</v>
-      </c>
-      <c r="L35">
-        <v>15</v>
-      </c>
-      <c r="M35">
-        <v>18</v>
-      </c>
-      <c r="N35">
-        <v>0.83</v>
-      </c>
-      <c r="O35">
-        <v>0.17</v>
-      </c>
-      <c r="P35" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q35">
-        <v>687</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2446,13 +2410,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2920792079207921</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C37">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="D37">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2464,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>143</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2498,13 +2462,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2622950819672131</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C39">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D39">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2516,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2524,13 +2488,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2525773195876289</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2542,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>145</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2550,25 +2514,25 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2205882352941176</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D41">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E41">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>53</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2576,13 +2540,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2040816326530612</v>
+        <v>0.175</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D42">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2594,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>78</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2602,13 +2566,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.18</v>
+        <v>0.1648351648351648</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2620,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>164</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2628,13 +2592,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1794871794871795</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="C44">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D44">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2646,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>96</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2654,13 +2618,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.177536231884058</v>
+        <v>0.1587537091988131</v>
       </c>
       <c r="C45">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="D45">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2672,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>227</v>
+        <v>567</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2680,13 +2644,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.1691394658753709</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C46">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="D46">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2698,7 +2662,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>560</v>
+        <v>266</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2706,13 +2670,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1642857142857143</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="C47">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2724,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>117</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2732,25 +2696,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1556195965417868</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="C48">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E48">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2758,13 +2722,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1424050632911392</v>
+        <v>0.1448598130841121</v>
       </c>
       <c r="C49">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D49">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2776,7 +2740,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>271</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2784,13 +2748,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1271186440677966</v>
+        <v>0.1409691629955947</v>
       </c>
       <c r="C50">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D50">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2802,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>103</v>
+        <v>390</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2810,13 +2774,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1210191082802548</v>
+        <v>0.1337579617834395</v>
       </c>
       <c r="C51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D51">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2828,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2836,13 +2800,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.12</v>
+        <v>0.1271186440677966</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D52">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2854,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>154</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2862,25 +2826,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1176470588235294</v>
+        <v>0.1265822784810127</v>
       </c>
       <c r="C53">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D53">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="G53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>165</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2888,13 +2852,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1121495327102804</v>
+        <v>0.12</v>
       </c>
       <c r="C54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D54">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2906,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>190</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2914,13 +2878,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.105726872246696</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C55">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D55">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2932,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>406</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2940,25 +2904,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1012145748987854</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C56">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D56">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E56">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>222</v>
+        <v>164</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2966,13 +2930,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.09836065573770492</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2984,7 +2948,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>165</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2992,13 +2956,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.09424083769633508</v>
+        <v>0.09677419354838709</v>
       </c>
       <c r="C58">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -3010,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>173</v>
+        <v>224</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3018,7 +2982,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.09375</v>
+        <v>0.09424083769633508</v>
       </c>
       <c r="C59">
         <v>18</v>
@@ -3036,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3044,25 +3008,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.09177215189873418</v>
+        <v>0.08258928571428571</v>
       </c>
       <c r="C60">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>287</v>
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3070,25 +3034,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08646616541353383</v>
+        <v>0.06027397260273973</v>
       </c>
       <c r="C61">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E61">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>243</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3096,13 +3060,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.06478873239436619</v>
+        <v>0.05915492957746479</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3114,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3122,25 +3086,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.06446280991735537</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C63">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D63">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E63">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="F63">
-        <v>0.9299999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3148,25 +3112,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0623608017817372</v>
+        <v>0.05734767025089606</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>421</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3174,25 +3138,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06027397260273973</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C65">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D65">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>343</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3200,103 +3164,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04447852760736196</v>
+        <v>0.03548795944233207</v>
       </c>
       <c r="C66">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D66">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>0.09</v>
+        <v>0.15</v>
       </c>
       <c r="F66">
-        <v>0.91</v>
+        <v>0.85</v>
       </c>
       <c r="G66" t="b">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67">
-        <v>0.04176334106728538</v>
-      </c>
-      <c r="C67">
-        <v>18</v>
-      </c>
-      <c r="D67">
-        <v>21</v>
-      </c>
-      <c r="E67">
-        <v>0.14</v>
-      </c>
-      <c r="F67">
-        <v>0.86</v>
-      </c>
-      <c r="G67" t="b">
-        <v>1</v>
-      </c>
-      <c r="H67">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68">
-        <v>0.03929024081115336</v>
-      </c>
-      <c r="C68">
-        <v>31</v>
-      </c>
-      <c r="D68">
-        <v>36</v>
-      </c>
-      <c r="E68">
-        <v>0.14</v>
-      </c>
-      <c r="F68">
-        <v>0.86</v>
-      </c>
-      <c r="G68" t="b">
-        <v>1</v>
-      </c>
-      <c r="H68">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69">
-        <v>0.03738317757009346</v>
-      </c>
-      <c r="C69">
-        <v>16</v>
-      </c>
-      <c r="D69">
-        <v>17</v>
-      </c>
-      <c r="E69">
-        <v>0.06</v>
-      </c>
-      <c r="F69">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G69" t="b">
-        <v>1</v>
-      </c>
-      <c r="H69">
-        <v>412</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
